--- a/Orginal/Data/DataBase/元データ/DataBase.xlsx
+++ b/Orginal/Data/DataBase/元データ/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6040C563-E570-4913-9C57-65AADD864456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3B5D8-984B-4BC9-AB49-B503709AB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2925" windowWidth="21600" windowHeight="11385" tabRatio="733" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="2" r:id="rId1"/>
@@ -1382,47 +1382,47 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1818,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3596D3-F458-4B37-A156-D9EA4900D69D}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1833,11 +1833,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -1861,14 +1861,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f>IF(A3="","",VLOOKUP(A3, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" ref="B3:B12" si="0">IF(A3="","",VLOOKUP(A3, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <f>IF(C3="","",VLOOKUP(C3, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" ref="D3:D12" si="1">IF(C3="","",VLOOKUP(C3, モーション名_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1880,14 +1880,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <f>IF(A4="","",VLOOKUP(A4, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <f>IF(C4="","",VLOOKUP(C4, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1899,14 +1899,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <f>IF(A5="","",VLOOKUP(A5, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <f>IF(C5="","",VLOOKUP(C5, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1918,14 +1918,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <f>IF(A6="","",VLOOKUP(A6, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <f>IF(C6="","",VLOOKUP(C6, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1937,14 +1937,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <f>IF(A7="","",VLOOKUP(A7, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <f>IF(C7="","",VLOOKUP(C7, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1956,14 +1956,14 @@
         <v>0</v>
       </c>
       <c r="B8" s="3">
-        <f>IF(A8="","",VLOOKUP(A8, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3">
-        <f>IF(C8="","",VLOOKUP(C8, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1975,14 +1975,14 @@
         <v>0</v>
       </c>
       <c r="B9" s="3">
-        <f>IF(A9="","",VLOOKUP(A9, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3">
-        <f>IF(C9="","",VLOOKUP(C9, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1994,14 +1994,14 @@
         <v>0</v>
       </c>
       <c r="B10" s="3">
-        <f>IF(A10="","",VLOOKUP(A10, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3">
-        <f>IF(C10="","",VLOOKUP(C10, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2013,14 +2013,14 @@
         <v>0</v>
       </c>
       <c r="B11" s="3">
-        <f>IF(A11="","",VLOOKUP(A11, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <f>IF(C11="","",VLOOKUP(C11, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2032,14 +2032,14 @@
         <v>0</v>
       </c>
       <c r="B12" s="3">
-        <f>IF(A12="","",VLOOKUP(A12, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3">
-        <f>IF(C12="","",VLOOKUP(C12, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2181,11 +2181,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
@@ -2209,14 +2209,14 @@
         <v>45</v>
       </c>
       <c r="B3" s="9">
-        <f>IF(A3="","",VLOOKUP(A3, 敵名_ID,2,))</f>
+        <f t="shared" ref="B3:B14" si="0">IF(A3="","",VLOOKUP(A3, 敵名_ID,2,))</f>
         <v>20000</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="9">
-        <f>IF(C3="","",VLOOKUP(C3, モーション名_ID,2,FALSE))</f>
+        <f t="shared" ref="D3:D14" si="1">IF(C3="","",VLOOKUP(C3, モーション名_ID,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -2228,14 +2228,14 @@
         <v>45</v>
       </c>
       <c r="B4" s="9">
-        <f>IF(A4="","",VLOOKUP(A4, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9">
-        <f>IF(C4="","",VLOOKUP(C4, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -2247,14 +2247,14 @@
         <v>45</v>
       </c>
       <c r="B5" s="9">
-        <f>IF(A5="","",VLOOKUP(A5, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="9">
-        <f>IF(C5="","",VLOOKUP(C5, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -2266,14 +2266,14 @@
         <v>45</v>
       </c>
       <c r="B6" s="9">
-        <f>IF(A6="","",VLOOKUP(A6, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="9">
-        <f>IF(C6="","",VLOOKUP(C6, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2285,14 +2285,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="9">
-        <f>IF(A7="","",VLOOKUP(A7, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="9">
-        <f>IF(C7="","",VLOOKUP(C7, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -2304,14 +2304,14 @@
         <v>45</v>
       </c>
       <c r="B8" s="9">
-        <f>IF(A8="","",VLOOKUP(A8, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="9">
-        <f>IF(C8="","",VLOOKUP(C8, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -2323,14 +2323,14 @@
         <v>46</v>
       </c>
       <c r="B9" s="9">
-        <f>IF(A9="","",VLOOKUP(A9, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="9">
-        <f>IF(C9="","",VLOOKUP(C9, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -2342,14 +2342,14 @@
         <v>46</v>
       </c>
       <c r="B10" s="9">
-        <f>IF(A10="","",VLOOKUP(A10, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="9">
-        <f>IF(C10="","",VLOOKUP(C10, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -2361,14 +2361,14 @@
         <v>46</v>
       </c>
       <c r="B11" s="9">
-        <f>IF(A11="","",VLOOKUP(A11, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="9">
-        <f>IF(C11="","",VLOOKUP(C11, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -2380,14 +2380,14 @@
         <v>46</v>
       </c>
       <c r="B12" s="9">
-        <f>IF(A12="","",VLOOKUP(A12, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="9">
-        <f>IF(C12="","",VLOOKUP(C12, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -2399,14 +2399,14 @@
         <v>46</v>
       </c>
       <c r="B13" s="9">
-        <f>IF(A13="","",VLOOKUP(A13, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="9">
-        <f>IF(C13="","",VLOOKUP(C13, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -2418,14 +2418,14 @@
         <v>46</v>
       </c>
       <c r="B14" s="9">
-        <f>IF(A14="","",VLOOKUP(A14, 敵名_ID,2,))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="9">
-        <f>IF(C14="","",VLOOKUP(C14, モーション名_ID,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -2454,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53713D07-89C5-4614-B42A-7211B814EAB1}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2562,7 +2562,7 @@
     <row r="4" spans="1:11">
       <c r="A4" s="16"/>
       <c r="B4" s="16" t="str">
-        <f t="shared" ref="B2:B30" si="0">IF(A4="","",VLOOKUP(A4, 敵種類リスト,2,))</f>
+        <f t="shared" ref="B4:B30" si="0">IF(A4="","",VLOOKUP(A4, 敵種類リスト,2,))</f>
         <v/>
       </c>
       <c r="C4" s="16"/>
@@ -3031,25 +3031,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="K1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="K1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3097,7 +3097,7 @@
       <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="44" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="26">
@@ -3151,7 +3151,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="44" t="s">
         <v>139</v>
       </c>
       <c r="B4" s="26">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="44" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="26">
@@ -3262,29 +3262,29 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="26" t="str">
-        <f t="shared" ref="A5:A31" si="0">IF(B6="", "", A5+1)</f>
+        <f t="shared" ref="A6:A31" si="0">IF(B6="", "", A5+1)</f>
         <v/>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="26" t="str">
-        <f t="shared" ref="E3:E31" si="1">IF(D6="","",VLOOKUP(D6, 効果IDリスト, 2, FALSE))</f>
+        <f t="shared" ref="E6:E31" si="1">IF(D6="","",VLOOKUP(D6, 効果IDリスト, 2, FALSE))</f>
         <v/>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="26" t="str">
-        <f t="shared" ref="G4:G31" si="2">IF(F6="","",VLOOKUP(F6, 対象IDリスト, 2, FALSE))</f>
+        <f t="shared" ref="G6:G31" si="2">IF(F6="","",VLOOKUP(F6, 対象IDリスト, 2, FALSE))</f>
         <v/>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="26" t="str">
-        <f t="shared" ref="I3:I31" si="3">IF(H6="","",VLOOKUP(H6, 効果範囲IDリスト, 2, FALSE))</f>
+        <f t="shared" ref="I6:I31" si="3">IF(H6="","",VLOOKUP(H6, 効果範囲IDリスト, 2, FALSE))</f>
         <v/>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="26" t="str">
-        <f t="shared" ref="K3:K31" si="4">IF(J6="","",VLOOKUP(J6, 効果割合IDリスト, 2, FALSE))</f>
+        <f t="shared" ref="K6:K31" si="4">IF(J6="","",VLOOKUP(J6, 効果割合IDリスト, 2, FALSE))</f>
         <v/>
       </c>
       <c r="L6" s="26"/>
@@ -4178,23 +4178,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4224,10 +4224,10 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="44">
         <v>50000</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -4258,10 +4258,10 @@
       <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="44">
         <f>B3+1</f>
         <v>50001</v>
       </c>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="26" t="str">
-        <f t="shared" ref="A4:A31" si="0">IF(B31="", "", A30+1)</f>
+        <f t="shared" ref="A31" si="0">IF(B31="", "", A30+1)</f>
         <v/>
       </c>
       <c r="B31" s="26"/>
@@ -4682,23 +4682,23 @@
   </cols>
   <sheetData>
     <row r="14" spans="2:9">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -4734,10 +4734,10 @@
         <v>20000</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="42">
         <v>0</v>
       </c>
     </row>
@@ -4758,10 +4758,10 @@
         <v>20001</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="42">
         <f t="shared" ref="I17:I26" si="0">I16+1</f>
         <v>1</v>
       </c>
@@ -4776,10 +4776,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4794,10 +4794,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4809,10 +4809,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4824,10 +4824,10 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4839,10 +4839,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4854,10 +4854,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4869,10 +4869,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4884,10 +4884,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4899,10 +4899,10 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>

--- a/Orginal/Data/DataBase/元データ/DataBase.xlsx
+++ b/Orginal/Data/DataBase/元データ/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3B5D8-984B-4BC9-AB49-B503709AB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3C08F-6396-42A1-96BF-7A8643E11CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <definedName name="アイテム名_ID">EquipmentData!$A$3:$B$4</definedName>
     <definedName name="プレイヤー名" comment="プレイヤーの名前のプルダウン用">Chara_Reference!$B$16:$B$17</definedName>
     <definedName name="プレイヤー名_ID" comment="プレイヤー名からIDを引くよう">Chara_Reference!$B$16:$C$17</definedName>
-    <definedName name="モーション名" comment="モーション名プルダウン用">Chara_Reference!$H$16:$H$26</definedName>
-    <definedName name="モーション名_ID" comment="モーション名からIDを引くよう">Chara_Reference!$H$16:$I$26</definedName>
+    <definedName name="モーション名" comment="モーション名プルダウン用">Chara_Reference!$H$16:$H$27</definedName>
+    <definedName name="モーション名_ID" comment="モーション名からIDを引くよう">Chara_Reference!$H$16:$I$27</definedName>
     <definedName name="効果" comment="効果のプルダウン用">Item_Reference!$B$3:$B$7</definedName>
     <definedName name="効果_ID" comment="効果名からIDを引くよう">Item_Reference!$B$3:$C$7</definedName>
     <definedName name="効果割合" comment="効果割合のプルダウン用">Item_Reference!$K$3:$K$4</definedName>
@@ -41,8 +41,10 @@
     <definedName name="装備種類_ID" comment="装備種類名からIDを引くよう">Item_Reference!$E$13:$F$14</definedName>
     <definedName name="対象" comment="対象のプルダウン用">Item_Reference!$E$3:$E$4</definedName>
     <definedName name="対象_ID" comment="対象名からIDを引くよう">Item_Reference!$E$3:$F$4</definedName>
-    <definedName name="敵名" comment="敵の名前のプルダウン用">Chara_Reference!$E$16:$E$17</definedName>
-    <definedName name="敵名_ID" comment="敵名からIDを引くよう">Chara_Reference!$E$16:$F$17</definedName>
+    <definedName name="敵タイプ" comment="敵タイプのプルダウン用">Chara_Reference!$K$15:$K$16</definedName>
+    <definedName name="敵タイプ_ID" comment="敵タイプからIDを引くよう">Chara_Reference!$K$15:$L$16</definedName>
+    <definedName name="敵名" comment="敵の名前のプルダウン用">Chara_Reference!$E$16:$E$18</definedName>
+    <definedName name="敵名_ID" comment="敵名からIDを引くよう">Chara_Reference!$E$16:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="160">
   <si>
     <t>プレイヤーB</t>
   </si>
@@ -63,175 +65,175 @@
   </si>
   <si>
     <t>#AGI</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#VIT</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#STR</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#MP</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#HP</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#名前</t>
     <rPh sb="1" eb="3">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#名前ID</t>
     <rPh sb="1" eb="3">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>PlayerB/UseItem.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>USEITEM</t>
   </si>
   <si>
     <t>PlayerB/Attack.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ATTACK</t>
   </si>
   <si>
     <t>PlayerB/Run.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>RUN</t>
   </si>
   <si>
     <t>PlayerB/Idle.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>IDLE</t>
   </si>
   <si>
     <t>PlayerB/PlayerB.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>DEFAULT</t>
   </si>
   <si>
     <t>PlayerA/UseItem.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>PlayerA/Attack.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>PlayerA/Run.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>PlayerA/Idle.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>PlayerA/PlayerA.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>モーション関連</t>
     <rPh sb="5" eb="7">
       <t>カンレン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>UNIQUE3</t>
   </si>
   <si>
     <t>UNIQUE2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>UNIQUE1</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>USEITEM</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>DAMAGE</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>DIE</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ATTACK</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>RUN</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>WALK</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>IDLE</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>プレイヤーB</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>DEFAULT</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>プレイヤーA</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -247,21 +249,21 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>モーション種類</t>
     <rPh sb="5" eb="7">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>キャラ種類</t>
     <rPh sb="3" eb="5">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>モンスターA</t>
@@ -274,15 +276,15 @@
     <rPh sb="5" eb="7">
       <t>カンケイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#Name</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#NameID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -298,114 +300,114 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#TypeID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#Filepath</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterA/MonsterA.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterA/Idle.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterA/Run.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterA/Attack.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>WALK</t>
   </si>
   <si>
     <t>MonsterA/Walk.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>DIE</t>
   </si>
   <si>
     <t>MonsterA/Die.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterB/MonsterB.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterB/Idle.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterB/Walk.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterB/Run.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterB/Attack.fbx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MonsterB/Die.fbx</t>
   </si>
   <si>
     <t>#ドロップ1</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ドロップ1ID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ドロップ率(%)</t>
     <rPh sb="5" eb="6">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ドロップ2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ドロップ2ID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ドロップ3</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ドロップ3ID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>敵種類</t>
     <rPh sb="0" eb="3">
       <t>テキシュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>モンスターA</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>モンスターB</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#を先頭に付けたらそのセルは無視</t>
@@ -418,50 +420,50 @@
     <rPh sb="14" eb="16">
       <t>ムシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果量</t>
     <rPh sb="1" eb="4">
       <t>コウカリョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#アイテム名</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ファイル名</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果</t>
     <rPh sb="1" eb="3">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果ID</t>
     <rPh sb="1" eb="3">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#対象</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#対象ID</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果範囲</t>
@@ -471,7 +473,7 @@
     <rPh sb="3" eb="5">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果範囲ID</t>
@@ -481,7 +483,7 @@
     <rPh sb="3" eb="5">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果割合</t>
@@ -491,7 +493,7 @@
     <rPh sb="3" eb="5">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果割合ID</t>
@@ -501,33 +503,33 @@
     <rPh sb="3" eb="5">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ATK</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#DEF</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#説明文</t>
     <rPh sb="1" eb="4">
       <t>セツメイブン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>potion.png</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#回復</t>
     <rPh sb="1" eb="3">
       <t>カイフク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#味方</t>
@@ -537,30 +539,30 @@
     <rPh sb="1" eb="3">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#固定値</t>
     <rPh sb="1" eb="4">
       <t>コテイチ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>HPを回復する薬</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>magic_potion.png</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MPを回復する薬</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>bomb.png</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ダメージ</t>
@@ -570,7 +572,7 @@
     <rPh sb="1" eb="2">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>敵にダメージを与える</t>
@@ -580,7 +582,7 @@
     <rPh sb="7" eb="8">
       <t>アタ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>o</t>
@@ -590,11 +592,11 @@
     <rPh sb="1" eb="3">
       <t>ボウグ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>beginners_armor.png</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>初心者用の鎧</t>
@@ -604,22 +606,22 @@
     <rPh sb="5" eb="6">
       <t>ヨロイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#武器</t>
     <rPh sb="1" eb="3">
       <t>ブキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>beginners_sword.png</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>初心者用の剣</t>
@@ -629,22 +631,22 @@
     <rPh sb="5" eb="6">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#プレイヤーB</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#プレイヤーA</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#素早さ</t>
     <rPh sb="1" eb="3">
       <t>スバヤ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#防御力</t>
@@ -654,7 +656,7 @@
     <rPh sb="3" eb="4">
       <t>リョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#攻撃力</t>
@@ -664,49 +666,49 @@
     <rPh sb="3" eb="4">
       <t>リョク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#装備種類ID</t>
     <rPh sb="1" eb="5">
       <t>ソウビシュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#装備種類</t>
     <rPh sb="1" eb="5">
       <t>ソウビシュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#アイコンファイル名</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#装備可能</t>
     <rPh sb="1" eb="5">
       <t>ソウビカノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>効果</t>
     <rPh sb="0" eb="2">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>効果範囲</t>
@@ -716,7 +718,7 @@
     <rPh sb="2" eb="4">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>効果割合</t>
@@ -726,118 +728,217 @@
     <rPh sb="2" eb="4">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#味方</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ダメージ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#グループ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#割合(%)</t>
     <rPh sb="1" eb="3">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#バフ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#全体</t>
     <rPh sb="1" eb="3">
       <t>ゼンタイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#デバフ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#範囲</t>
     <rPh sb="1" eb="3">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#装備</t>
     <rPh sb="1" eb="3">
       <t>ソウビ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>装備可能</t>
     <rPh sb="0" eb="4">
       <t>ソウビカノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>装備種類</t>
     <rPh sb="0" eb="4">
       <t>ソウビシュルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#アイテム名ID</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>回復薬</t>
     <rPh sb="0" eb="3">
       <t>カイフクヤク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>魔法薬</t>
     <rPh sb="0" eb="3">
       <t>マホウヤク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>爆弾</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>初心者用の剣</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>初心者用の鎧</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ボスモンスター</t>
+  </si>
+  <si>
+    <t>ボスモンスター</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>BossMonster/BossMonster.fbx</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>BossMonster/Run.fbx</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>BossMonster/Attack.fbx</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#タイプ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#タイプID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>敵タイプ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>MOB</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>BossMonster/Idle.fbx</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>GUARD</t>
+  </si>
+  <si>
+    <t>GUARD</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>PlayerA/Guard.fbx</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>PlayerB/Guard.fbx</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1124,7 +1225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1214,215 +1315,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="12" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="2" xfId="14" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1803,7 +1944,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{4F5AF7EA-F856-449A-9B09-15C2C1D85FF1}">
       <formula1>プレイヤー名</formula1>
@@ -1816,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3596D3-F458-4B37-A156-D9EA4900D69D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1833,11 +1974,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -1861,14 +2002,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B12" si="0">IF(A3="","",VLOOKUP(A3, プレイヤー名_ID, 2, FALSE))</f>
+        <f t="shared" ref="B3:B13" si="0">IF(A3="","",VLOOKUP(A3, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D12" si="1">IF(C3="","",VLOOKUP(C3, モーション名_ID, 2, FALSE))</f>
+        <f t="shared" ref="D3:D14" si="1">IF(C3="","",VLOOKUP(C3, モーション名_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1937,37 +2078,37 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7" si="2">IF(A7="","",VLOOKUP(A7, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
+        <f t="shared" ref="D7" si="3">IF(C7="","",VLOOKUP(C7, モーション名_ID, 2, FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1979,14 +2120,14 @@
         <v>10001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1998,14 +2139,14 @@
         <v>10001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2017,14 +2158,14 @@
         <v>10001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2036,13 +2177,51 @@
         <v>10001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>10001</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" ref="B14" si="4">IF(A14="","",VLOOKUP(A14, プレイヤー名_ID, 2, FALSE))</f>
+        <v>10001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2050,12 +2229,12 @@
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12" xr:uid="{A898687A-7F8E-42CE-8B82-0C0F92AF266D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A14" xr:uid="{A898687A-7F8E-42CE-8B82-0C0F92AF266D}">
       <formula1>プレイヤー名</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C12" xr:uid="{56C45EDE-057D-45A2-B4F5-01BD6B4C623E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{56C45EDE-057D-45A2-B4F5-01BD6B4C623E}">
       <formula1>モーション名</formula1>
     </dataValidation>
   </dataValidations>
@@ -2066,43 +2245,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE029A-3396-4846-9653-5606D3AE68B8}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -2110,23 +2297,30 @@
         <f>IF(A2="","",VLOOKUP(A2, 敵名_ID,2,))</f>
         <v>20000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="9">
+        <f>IF(C2="","",VLOOKUP(C2, 敵タイプ_ID,2,))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -2134,27 +2328,68 @@
         <f>IF(A3="","",VLOOKUP(A3, 敵名_ID,2,))</f>
         <v>20001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="9">
+        <f>IF(C3="","",VLOOKUP(C3, 敵タイプ_ID,2,))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="9">
+        <f>IF(A4="","",VLOOKUP(A4, 敵名_ID,2,))</f>
+        <v>20002</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="9">
+        <f>IF(C4="","",VLOOKUP(C4, 敵タイプ_ID,2,))</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>200</v>
+      </c>
+      <c r="F4" s="4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{A68B21EC-39DD-4797-ABB7-AC107A142AEA}">
+  <phoneticPr fontId="12"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{A68B21EC-39DD-4797-ABB7-AC107A142AEA}">
       <formula1>敵名</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{23930A15-99BF-4D39-9656-4019537D2A96}">
+      <formula1>敵タイプ</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2164,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17FF152-9396-4FC3-9F33-A606A2509458}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2176,16 +2411,16 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
@@ -2312,7 +2547,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>60</v>
@@ -2426,22 +2661,105 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" ref="B15:B17" si="2">IF(A15="","",VLOOKUP(A15, 敵名_ID,2,))</f>
+        <v>20002</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ref="D15:D17" si="3">IF(C15="","",VLOOKUP(C15, モーション名_ID,2,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="2"/>
+        <v>20002</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="2"/>
+        <v>20002</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" ref="B18" si="4">IF(A18="","",VLOOKUP(A18, 敵名_ID,2,))</f>
+        <v>20002</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18" si="5">IF(C18="","",VLOOKUP(C18, モーション名_ID,2,FALSE))</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A14" xr:uid="{A82FB9BA-223C-4A64-AC2D-FD8A2C23FD65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A19" xr:uid="{A82FB9BA-223C-4A64-AC2D-FD8A2C23FD65}">
       <formula1>敵名</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{0CF26517-F971-4127-B6DB-62EDE6EC8220}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19" xr:uid="{0CF26517-F971-4127-B6DB-62EDE6EC8220}">
       <formula1>モーション名</formula1>
     </dataValidation>
   </dataValidations>
@@ -2454,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53713D07-89C5-4614-B42A-7211B814EAB1}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2992,7 +3310,7 @@
       <c r="K30" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A30" xr:uid="{2BF93E10-5880-4EDD-B938-1B478DDC3CA8}">
       <formula1>敵種類</formula1>
@@ -3014,7 +3332,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3031,19 +3349,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="K1" s="51" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="K1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="43" t="s">
@@ -3245,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="26">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="M5" s="26">
         <v>0</v>
@@ -4123,7 +4441,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J31" xr:uid="{38D39179-45DD-42B1-BBED-D6FAAF62DC9E}">
       <formula1>効果割合種類</formula1>
@@ -4178,17 +4496,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="52"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="43" t="s">
@@ -4650,7 +4968,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4" xr:uid="{1153C706-4C87-4982-A782-C134F35A1F23}">
       <formula1>装備種類</formula1>
@@ -4669,35 +4987,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A816A1-4835-4039-B9D3-1FEF692AA158}">
-  <dimension ref="B14:I26"/>
+  <dimension ref="B14:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:9">
-      <c r="B14" s="53" t="s">
+    <row r="14" spans="2:12">
+      <c r="B14" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="I14" s="60"/>
+      <c r="K14" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="61"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="41" t="s">
         <v>27</v>
       </c>
@@ -4718,8 +5041,14 @@
       <c r="I15" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="K15" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
@@ -4740,8 +5069,14 @@
       <c r="I16" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="K16" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -4762,19 +5097,26 @@
         <v>38</v>
       </c>
       <c r="I17" s="42">
-        <f t="shared" ref="I17:I26" si="0">I16+1</f>
+        <f t="shared" ref="I17:I27" si="0">I16+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="str">
         <f>IF(B18="","",C17+1)</f>
         <v/>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="6">
+        <f>IF(E18="", "", F17+1)</f>
+        <v>20002</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="42" t="s">
         <v>37</v>
@@ -4784,7 +5126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:12">
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="str">
         <f>IF(B19="","",C18+1)</f>
@@ -4802,7 +5144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:12">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4817,22 +5159,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:12">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="42" t="s">
-        <v>34</v>
+      <c r="H21" s="62" t="s">
+        <v>157</v>
       </c>
       <c r="I21" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4840,14 +5182,14 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:12">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4855,14 +5197,14 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:12">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4870,14 +5212,14 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:12">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4885,14 +5227,14 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I25" s="42">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:12">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4900,20 +5242,30 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="H27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="42">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="I27" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="K14:L14"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5128,7 +5480,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Orginal/Data/DataBase/元データ/DataBase.xlsx
+++ b/Orginal/Data/DataBase/元データ/DataBase.xlsx
@@ -2,30 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A3C08F-6396-42A1-96BF-7A8643E11CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6D62B-B219-4E9A-937A-EACBFEF4E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="2" r:id="rId1"/>
     <sheet name="PLMesh" sheetId="3" r:id="rId2"/>
-    <sheet name="EnmStatus" sheetId="12" r:id="rId3"/>
-    <sheet name="EnmMesh" sheetId="13" r:id="rId4"/>
-    <sheet name="EnmDrop" sheetId="14" r:id="rId5"/>
-    <sheet name="ItemData" sheetId="16" r:id="rId6"/>
-    <sheet name="EquipmentData" sheetId="17" r:id="rId7"/>
-    <sheet name="Chara_Reference" sheetId="19" r:id="rId8"/>
-    <sheet name="Item_Reference" sheetId="18" r:id="rId9"/>
+    <sheet name="PLSkill" sheetId="20" r:id="rId3"/>
+    <sheet name="EnmStatus" sheetId="12" r:id="rId4"/>
+    <sheet name="EnmMesh" sheetId="13" r:id="rId5"/>
+    <sheet name="EnmDrop" sheetId="14" r:id="rId6"/>
+    <sheet name="ItemData" sheetId="16" r:id="rId7"/>
+    <sheet name="EquipmentData" sheetId="17" r:id="rId8"/>
+    <sheet name="Chara_Reference" sheetId="19" r:id="rId9"/>
+    <sheet name="Item_Reference" sheetId="18" r:id="rId10"/>
+    <sheet name="Skill_Reference" sheetId="21" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="アイテム名" comment="アイテム名のプルダウン用">EquipmentData!$A$3:$A$4</definedName>
     <definedName name="アイテム名_ID">EquipmentData!$A$3:$B$4</definedName>
+    <definedName name="スキルタイプ名">Skill_Reference!$B$3:$B$4</definedName>
+    <definedName name="スキルタイプ名_ID">Skill_Reference!$B$3:$C$4</definedName>
+    <definedName name="スキル効果割合名">Skill_Reference!$K$3:$K$4</definedName>
+    <definedName name="スキル効果割合名_ID">Skill_Reference!$K$3:$L$4</definedName>
+    <definedName name="スキル対象数名">Skill_Reference!$H$3:$H$4</definedName>
+    <definedName name="スキル対象数名_ID">Skill_Reference!$H$3:$I$4</definedName>
+    <definedName name="スキル対象名">Skill_Reference!$E$3:$E$5</definedName>
+    <definedName name="スキル対象名_ID">Skill_Reference!$E$3:$F$5</definedName>
     <definedName name="プレイヤー名" comment="プレイヤーの名前のプルダウン用">Chara_Reference!$B$16:$B$17</definedName>
     <definedName name="プレイヤー名_ID" comment="プレイヤー名からIDを引くよう">Chara_Reference!$B$16:$C$17</definedName>
     <definedName name="モーション名" comment="モーション名プルダウン用">Chara_Reference!$H$16:$H$27</definedName>
@@ -56,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
   <si>
     <t>プレイヤーB</t>
   </si>
@@ -895,6 +905,215 @@
   <si>
     <t>PlayerB/Guard.fbx</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#スキル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#スキルID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>効果割合</t>
+    <rPh sb="0" eb="4">
+      <t>コウカワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#バフ</t>
+  </si>
+  <si>
+    <t>#バフ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#デバフ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#なし</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#味方</t>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#敵</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#固定値</t>
+    <rPh sb="1" eb="4">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#割合</t>
+    <rPh sb="1" eb="3">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>対象数</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>攻撃力アップ</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#消費MP</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#単体</t>
+    <rPh sb="1" eb="3">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#全体</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#対象</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#対象ID</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#対象数</t>
+    <rPh sb="1" eb="4">
+      <t>タイショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#対象数ID</t>
+    <rPh sb="1" eb="4">
+      <t>タイショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#ターン</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#効果割合</t>
+    <rPh sb="1" eb="5">
+      <t>コウカワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#効果割合ID</t>
+    <rPh sb="1" eb="5">
+      <t>コウカワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#攻撃効果量</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウカリョウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#防御効果量</t>
+    <rPh sb="1" eb="3">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#プレイヤー名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#プレイヤーID</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#スキル情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>味方の攻撃力を上げる</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -1061,7 +1280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1443,42 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1374,7 +1629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
@@ -1526,6 +1781,40 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,11 +1848,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1859,6 +2145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C96EE9-9C43-4510-9C50-71EE1ECE0F23}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1955,12 +2242,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB27D3C-3ABA-47C6-9849-2BFF85E3397B}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="B2:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="26">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="H5" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="26">
+        <v>2</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="26">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="26">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="26">
+        <v>4</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0EBE67-A665-436E-BFF2-0032EEABDDD2}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="B2:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="55">
+        <v>0</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="55">
+        <f t="shared" ref="C4" si="0">C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="55">
+        <f>F3+1</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="55">
+        <f>I3 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="55">
+        <f>L3+ 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="E5" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="55">
+        <f t="shared" ref="F5:F6" si="1">F4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3596D3-F458-4B37-A156-D9EA4900D69D}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1974,11 +2596,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -2088,7 +2710,7 @@
         <f t="shared" ref="D7" si="3">IF(C7="","",VLOOKUP(C7, モーション名_ID, 2, FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="52" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2202,7 +2824,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="52" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2244,11 +2866,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFF4D26-4FF1-4215-8CD2-EE2690897B61}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="55">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55">
+        <f>IF(C2="","",VLOOKUP(C2, プレイヤー名_ID, 2, FALSE))</f>
+        <v>10000</v>
+      </c>
+      <c r="E2" s="55">
+        <v>5</v>
+      </c>
+      <c r="F2" s="55">
+        <v>2</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="55">
+        <f>IF(G2="","",VLOOKUP(G2, スキルタイプ名_ID, 2, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="55">
+        <f>IF(I2="","",VLOOKUP(I2, スキル対象名_ID, 2, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="55">
+        <f>IF(K2="","",VLOOKUP(K2, スキル対象数名_ID, 2, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="55">
+        <f>IF(M2="","",VLOOKUP(M2, スキル効果割合名_ID, 2, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="55">
+        <v>1.2</v>
+      </c>
+      <c r="P2" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{2F23F9A5-9364-41DC-9ABC-3CFEA1E0254D}">
+      <formula1>スキルタイプ名</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{4CC88C41-9307-4E10-A8BC-B969DD659A1F}">
+      <formula1>スキル対象名</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{4CFBA71D-9E37-4A33-8776-46C4C23B312E}">
+      <formula1>スキル対象数名</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{E3ACA789-80A8-40CE-8612-B1807D6EB5C1}">
+      <formula1>スキル効果割合名</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{252113AB-B72A-4850-925A-0CF37383FAB1}">
+      <formula1>プレイヤー名</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE029A-3396-4846-9653-5606D3AE68B8}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2397,8 +3185,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17FF152-9396-4FC3-9F33-A606A2509458}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2416,11 +3205,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
@@ -2768,12 +3557,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53713D07-89C5-4614-B42A-7211B814EAB1}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3311,11 +4101,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A30" xr:uid="{2BF93E10-5880-4EDD-B938-1B478DDC3CA8}">
-      <formula1>敵種類</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{993CA095-9096-4F41-A0DC-400C75F7ADFC}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{993CA095-9096-4F41-A0DC-400C75F7ADFC}">
       <formula1>敵名</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{A3779203-3264-4A7A-AAEE-64B0407F5206}">
@@ -3327,8 +4114,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94687E62-924B-4F0A-8F0B-70E678460FBE}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,19 +4137,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="K1" s="57" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="K1" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="43" t="s">
@@ -4473,8 +5261,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD76B79-F439-419F-9B0C-81245B094947}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4496,17 +5285,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="43" t="s">
@@ -4985,8 +5774,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A816A1-4835-4039-B9D3-1FEF692AA158}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B14:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5001,24 +5791,24 @@
   </cols>
   <sheetData>
     <row r="14" spans="2:12">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="K14" s="61" t="s">
+      <c r="I14" s="72"/>
+      <c r="K14" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="61"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="41" t="s">
@@ -5166,7 +5956,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="51" t="s">
         <v>157</v>
       </c>
       <c r="I21" s="42">
@@ -5269,219 +6059,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB27D3C-3ABA-47C6-9849-2BFF85E3397B}">
-  <dimension ref="B2:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="26">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="26">
-        <v>2</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="H5" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="26">
-        <v>2</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="26">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="26">
-        <v>3</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="26">
-        <v>4</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Orginal/Data/DataBase/元データ/DataBase.xlsx
+++ b/Orginal/Data/DataBase/元データ/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6D62B-B219-4E9A-937A-EACBFEF4E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4289C-3F7B-4B63-9FEE-DE8C785A0CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="1350" windowWidth="21600" windowHeight="11385" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLStatus" sheetId="2" r:id="rId1"/>
@@ -68,182 +68,128 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="193">
   <si>
-    <t>プレイヤーB</t>
-  </si>
-  <si>
-    <t>プレイヤーA</t>
-  </si>
-  <si>
     <t>#AGI</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#VIT</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#STR</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#MP</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#HP</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#名前</t>
     <rPh sb="1" eb="3">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#名前ID</t>
     <rPh sb="1" eb="3">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>PlayerB/UseItem.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>USEITEM</t>
   </si>
   <si>
-    <t>PlayerB/Attack.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>ATTACK</t>
   </si>
   <si>
-    <t>PlayerB/Run.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>RUN</t>
   </si>
   <si>
-    <t>PlayerB/Idle.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>IDLE</t>
   </si>
   <si>
-    <t>PlayerB/PlayerB.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>PlayerA/UseItem.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>PlayerA/Attack.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>PlayerA/Run.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>PlayerA/Idle.fbx</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>PlayerA/PlayerA.fbx</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>モーション関連</t>
     <rPh sb="5" eb="7">
       <t>カンレン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>UNIQUE3</t>
   </si>
   <si>
     <t>UNIQUE2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>UNIQUE1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>USEITEM</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>DAMAGE</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>DIE</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ATTACK</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>RUN</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>WALK</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>IDLE</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>プレイヤーB</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>DEFAULT</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>プレイヤーA</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -259,21 +205,21 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>モーション種類</t>
     <rPh sb="5" eb="7">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>キャラ種類</t>
     <rPh sb="3" eb="5">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>モンスターA</t>
@@ -286,15 +232,15 @@
     <rPh sb="5" eb="7">
       <t>カンケイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#Name</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#NameID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -310,114 +256,114 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#TypeID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#Filepath</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterA/MonsterA.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterA/Idle.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterA/Run.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterA/Attack.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>WALK</t>
   </si>
   <si>
     <t>MonsterA/Walk.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>DIE</t>
   </si>
   <si>
     <t>MonsterA/Die.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterB/MonsterB.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterB/Idle.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterB/Walk.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterB/Run.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterB/Attack.fbx</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MonsterB/Die.fbx</t>
   </si>
   <si>
     <t>#ドロップ1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ドロップ1ID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ドロップ率(%)</t>
     <rPh sb="5" eb="6">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ドロップ2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ドロップ2ID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ドロップ3</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ドロップ3ID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵種類</t>
     <rPh sb="0" eb="3">
       <t>テキシュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>モンスターA</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>モンスターB</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#を先頭に付けたらそのセルは無視</t>
@@ -430,50 +376,50 @@
     <rPh sb="14" eb="16">
       <t>ムシ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果量</t>
     <rPh sb="1" eb="4">
       <t>コウカリョウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#アイテム名</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ファイル名</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果</t>
     <rPh sb="1" eb="3">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果ID</t>
     <rPh sb="1" eb="3">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#対象</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#対象ID</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果範囲</t>
@@ -483,7 +429,7 @@
     <rPh sb="3" eb="5">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果範囲ID</t>
@@ -493,7 +439,7 @@
     <rPh sb="3" eb="5">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果割合</t>
@@ -503,7 +449,7 @@
     <rPh sb="3" eb="5">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#効果割合ID</t>
@@ -513,33 +459,33 @@
     <rPh sb="3" eb="5">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ATK</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#DEF</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#説明文</t>
     <rPh sb="1" eb="4">
       <t>セツメイブン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>potion.png</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#回復</t>
     <rPh sb="1" eb="3">
       <t>カイフク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#味方</t>
@@ -549,30 +495,30 @@
     <rPh sb="1" eb="3">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#固定値</t>
     <rPh sb="1" eb="4">
       <t>コテイチ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>HPを回復する薬</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>magic_potion.png</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>MPを回復する薬</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>bomb.png</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ダメージ</t>
@@ -582,7 +528,7 @@
     <rPh sb="1" eb="2">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵にダメージを与える</t>
@@ -592,7 +538,7 @@
     <rPh sb="7" eb="8">
       <t>アタ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>o</t>
@@ -602,11 +548,11 @@
     <rPh sb="1" eb="3">
       <t>ボウグ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>beginners_armor.png</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>初心者用の鎧</t>
@@ -616,22 +562,22 @@
     <rPh sb="5" eb="6">
       <t>ヨロイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#武器</t>
     <rPh sb="1" eb="3">
       <t>ブキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>beginners_sword.png</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>初心者用の剣</t>
@@ -641,22 +587,22 @@
     <rPh sb="5" eb="6">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#プレイヤーB</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#プレイヤーA</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#素早さ</t>
     <rPh sb="1" eb="3">
       <t>スバヤ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#防御力</t>
@@ -666,7 +612,7 @@
     <rPh sb="3" eb="4">
       <t>リョク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#攻撃力</t>
@@ -676,49 +622,49 @@
     <rPh sb="3" eb="4">
       <t>リョク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#装備種類ID</t>
     <rPh sb="1" eb="5">
       <t>ソウビシュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#装備種類</t>
     <rPh sb="1" eb="5">
       <t>ソウビシュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#アイコンファイル名</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#装備可能</t>
     <rPh sb="1" eb="5">
       <t>ソウビカノウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>効果</t>
     <rPh sb="0" eb="2">
       <t>コウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>効果範囲</t>
@@ -728,7 +674,7 @@
     <rPh sb="2" eb="4">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>効果割合</t>
@@ -738,172 +684,164 @@
     <rPh sb="2" eb="4">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#味方</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#ダメージ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#グループ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#割合(%)</t>
     <rPh sb="1" eb="3">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#バフ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#全体</t>
     <rPh sb="1" eb="3">
       <t>ゼンタイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#デバフ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#範囲</t>
     <rPh sb="1" eb="3">
       <t>ハンイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#装備</t>
     <rPh sb="1" eb="3">
       <t>ソウビ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>装備可能</t>
     <rPh sb="0" eb="4">
       <t>ソウビカノウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>装備種類</t>
     <rPh sb="0" eb="4">
       <t>ソウビシュルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#アイテム名ID</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>回復薬</t>
     <rPh sb="0" eb="3">
       <t>カイフクヤク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>魔法薬</t>
     <rPh sb="0" eb="3">
       <t>マホウヤク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>爆弾</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>初心者用の剣</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>初心者用の鎧</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ボスモンスター</t>
   </si>
   <si>
     <t>ボスモンスター</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>BossMonster/BossMonster.fbx</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>BossMonster/BossMonster.fbx</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>BossMonster/Run.fbx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>BossMonster/Attack.fbx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#タイプ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#タイプID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>敵タイプ</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MOB</t>
   </si>
   <si>
     <t>MOB</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>BossMonster/Idle.fbx</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>BOSS</t>
-  </si>
-  <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>BossMonster/Idle.fbx</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>GUARD</t>
   </si>
   <si>
     <t>GUARD</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>PlayerA/Guard.fbx</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>PlayerB/Guard.fbx</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -911,161 +849,161 @@
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#スキルID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>タイプ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t xml:space="preserve">ID </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>効果割合</t>
     <rPh sb="0" eb="4">
       <t>コウカワリアイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#バフ</t>
   </si>
   <si>
     <t>#バフ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#デバフ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#なし</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#味方</t>
     <rPh sb="1" eb="3">
       <t>ミカタ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#敵</t>
     <rPh sb="1" eb="2">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#固定値</t>
     <rPh sb="1" eb="4">
       <t>コテイチ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#割合</t>
     <rPh sb="1" eb="3">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>対象数</t>
     <rPh sb="0" eb="3">
       <t>タイショウスウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>攻撃力アップ</t>
     <rPh sb="0" eb="3">
       <t>コウゲキリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#消費MP</t>
     <rPh sb="1" eb="3">
       <t>ショウヒ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#単体</t>
     <rPh sb="1" eb="3">
       <t>タンタイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#全体</t>
     <rPh sb="1" eb="3">
       <t>ゼンタイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#対象</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#対象ID</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#対象数</t>
     <rPh sb="1" eb="4">
       <t>タイショウスウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#対象数ID</t>
     <rPh sb="1" eb="4">
       <t>タイショウスウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#ターン</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果割合</t>
     <rPh sb="1" eb="5">
       <t>コウカワリアイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#効果割合ID</t>
     <rPh sb="1" eb="5">
       <t>コウカワリアイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#攻撃効果量</t>
@@ -1075,32 +1013,32 @@
     <rPh sb="3" eb="6">
       <t>コウカリョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#防御効果量</t>
     <rPh sb="1" eb="3">
       <t>ボウギョ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#プレイヤー名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#プレイヤーID</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#スキル情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>味方の攻撃力を上げる</t>
@@ -1113,19 +1051,89 @@
     <rPh sb="7" eb="8">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>パラディン</t>
+  </si>
+  <si>
+    <t>パラディン</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>エリカ</t>
+  </si>
+  <si>
+    <t>エリカ</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Erika/idle.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Erika/run.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Erika/00_erika.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Erika/attack.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Erika/guard.fbx</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Erika/use_item.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Paladin/00_paladin.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Paladin/idle.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Paladin/run.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Paladin/attack.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Paladin/guard.fbx</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Paladin/use_item.fbx</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1586,205 +1594,202 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="12" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="12" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="2" xfId="14" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="2" xfId="14" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" xfId="14" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="2" xfId="14" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1815,41 +1820,44 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2148,8 +2156,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2161,77 +2169,77 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3">
         <f>IF(A2="","",VLOOKUP(A2, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C2" s="4">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
       <c r="F2" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3">
         <f>IF(A3="","",VLOOKUP(A3, プレイヤー名_ID, 2, FALSE))</f>
         <v>10001</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>15</v>
       </c>
       <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
       <c r="G3" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{4F5AF7EA-F856-449A-9B09-15C2C1D85FF1}">
       <formula1>プレイヤー名</formula1>
@@ -2260,51 +2268,51 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="34" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="26" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C3" s="26">
         <v>0</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F3" s="26">
         <v>0</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I3" s="26">
         <v>0</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L3" s="16">
         <v>0</v>
@@ -2312,25 +2320,25 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="26" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F4" s="26">
         <v>1</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I4" s="26">
         <v>1</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L4" s="16">
         <v>1</v>
@@ -2338,7 +2346,7 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="26" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C5" s="26">
         <v>2</v>
@@ -2346,7 +2354,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="H5" s="26" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I5" s="26">
         <v>2</v>
@@ -2356,7 +2364,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="26" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C6" s="26">
         <v>3</v>
@@ -2364,7 +2372,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="H6" s="26" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I6" s="26">
         <v>3</v>
@@ -2374,7 +2382,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="26" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C7" s="26">
         <v>4</v>
@@ -2418,23 +2426,23 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="38" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="40" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F13" s="16">
         <v>0</v>
@@ -2442,17 +2450,17 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="31" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2473,105 +2481,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0</v>
+      </c>
+      <c r="H3" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="55">
+      <c r="I3" s="54">
         <v>0</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="55">
+      <c r="K3" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="54">
         <v>0</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="55">
-        <v>0</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="55">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="55">
+      <c r="B4" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="54">
         <f t="shared" ref="C4" si="0">C3+1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="E4" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="54">
         <f>F3+1</f>
         <v>1</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="55">
+      <c r="H4" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="54">
         <f>I3 + 1</f>
         <v>1</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="55">
+      <c r="K4" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="54">
         <f>L3+ 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="55">
+      <c r="E5" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="54">
         <f t="shared" ref="F5:F6" si="1">F4+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="E6" s="55"/>
-      <c r="F6" s="55">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2582,7 +2590,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2597,261 +2605,261 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="C1" s="63" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B13" si="0">IF(A3="","",VLOOKUP(A3, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D14" si="1">IF(C3="","",VLOOKUP(C3, モーション名_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
+      <c r="E3" s="74" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
+      <c r="E4" s="74" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
+      <c r="E5" s="74" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
+      <c r="E6" s="74" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ref="B7" si="2">IF(A7="","",VLOOKUP(A7, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7" si="3">IF(C7="","",VLOOKUP(C7, モーション名_ID, 2, FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>158</v>
+      <c r="E7" s="74" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
+      <c r="E8" s="74" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
+      <c r="E9" s="74" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
+      <c r="E10" s="74" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
+      <c r="E11" s="74" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
+      <c r="E12" s="74" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>159</v>
+      <c r="E13" s="74" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" ref="B14" si="4">IF(A14="","",VLOOKUP(A14, プレイヤー名_ID, 2, FALSE))</f>
         <v>10001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
+      <c r="E14" s="74" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A14" xr:uid="{A898687A-7F8E-42CE-8B82-0C0F92AF266D}">
       <formula1>プレイヤー名</formula1>
@@ -2870,8 +2878,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2890,124 +2898,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="N1" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="55">
+      <c r="B2" s="54">
         <v>0</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="55">
+      <c r="C2" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="54">
         <f>IF(C2="","",VLOOKUP(C2, プレイヤー名_ID, 2, FALSE))</f>
         <v>10000</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="54">
         <v>5</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="54">
         <v>2</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="55">
+      <c r="G2" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="54">
         <f>IF(G2="","",VLOOKUP(G2, スキルタイプ名_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="55">
+      <c r="I2" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="54">
         <f>IF(I2="","",VLOOKUP(I2, スキル対象名_ID, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="K2" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="55">
+      <c r="K2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="54">
         <f>IF(K2="","",VLOOKUP(K2, スキル対象数名_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="M2" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" s="55">
+      <c r="M2" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="54">
         <f>IF(M2="","",VLOOKUP(M2, スキル効果割合名_ID, 2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="54">
         <v>1.2</v>
       </c>
-      <c r="P2" s="55">
+      <c r="P2" s="54">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{2F23F9A5-9364-41DC-9ABC-3CFEA1E0254D}">
       <formula1>スキルタイプ名</formula1>
@@ -3050,43 +3058,43 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" s="9">
         <f>IF(A2="","",VLOOKUP(A2, 敵名_ID,2,))</f>
         <v>20000</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D2" s="9">
         <f>IF(C2="","",VLOOKUP(C2, 敵タイプ_ID,2,))</f>
@@ -3110,14 +3118,14 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9">
         <f>IF(A3="","",VLOOKUP(A3, 敵名_ID,2,))</f>
         <v>20001</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9">
         <f>IF(C3="","",VLOOKUP(C3, 敵タイプ_ID,2,))</f>
@@ -3141,14 +3149,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="45" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B4" s="9">
         <f>IF(A4="","",VLOOKUP(A4, 敵名_ID,2,))</f>
         <v>20002</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9">
         <f>IF(C4="","",VLOOKUP(C4, 敵タイプ_ID,2,))</f>
@@ -3171,7 +3179,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{A68B21EC-39DD-4797-ABB7-AC107A142AEA}">
       <formula1>敵名</formula1>
@@ -3206,330 +3214,330 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="C1" s="65" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B14" si="0">IF(A3="","",VLOOKUP(A3, 敵名_ID,2,))</f>
         <v>20000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D14" si="1">IF(C3="","",VLOOKUP(C3, モーション名_ID,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" ref="B15:B17" si="2">IF(A15="","",VLOOKUP(A15, 敵名_ID,2,))</f>
         <v>20002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ref="D15:D17" si="3">IF(C15="","",VLOOKUP(C15, モーション名_ID,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" si="2"/>
         <v>20002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" si="2"/>
         <v>20002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" ref="B18" si="4">IF(A18="","",VLOOKUP(A18, 敵名_ID,2,))</f>
         <v>20002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18" si="5">IF(C18="","",VLOOKUP(C18, モーション名_ID,2,FALSE))</f>
         <v>4</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3543,7 +3551,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A19" xr:uid="{A82FB9BA-223C-4A64-AC2D-FD8A2C23FD65}">
       <formula1>敵名</formula1>
@@ -3584,49 +3592,49 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" s="16">
         <f>IF(A2="","",VLOOKUP(A2, 敵名_ID,2,))</f>
         <v>20000</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D2" s="16">
         <f>IF(C2="","",VLOOKUP(C2, アイテム名_ID, 2, FALSE))</f>
@@ -3644,14 +3652,14 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B3" s="16">
         <f>IF(A3="","",VLOOKUP(A3, 敵名_ID,2,))</f>
         <v>20001</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D3" s="16">
         <f>IF(C3="","",VLOOKUP(C3, アイテム名_ID, 2, FALSE))</f>
@@ -4100,7 +4108,7 @@
       <c r="K30" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{993CA095-9096-4F41-A0DC-400C75F7ADFC}">
       <formula1>敵名</formula1>
@@ -4138,14 +4146,14 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="67" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
       <c r="E1" s="68"/>
       <c r="K1" s="69" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L1" s="69"/>
       <c r="M1" s="69"/>
@@ -4153,88 +4161,88 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="43" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="44" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B3" s="26">
         <v>40000</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E3" s="26">
         <f>IF(D3="","",VLOOKUP(D3, 効果_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G3" s="26">
         <f>IF(F3="","",VLOOKUP(F3, 対象_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I3" s="26">
         <f>IF(H3="","",VLOOKUP(H3, 効果範囲_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K3" s="26">
         <f>IF(J3="","",VLOOKUP(J3, 効果割合_ID, 2, FALSE))</f>
@@ -4253,43 +4261,43 @@
         <v>0</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="44" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B4" s="26">
         <f>B3+1</f>
         <v>40001</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E4" s="26">
         <f>IF(D4="","",VLOOKUP(D4, 効果_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G4" s="26">
         <f>IF(F4="","",VLOOKUP(F4, 対象_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I4" s="26">
         <f>IF(H4="","",VLOOKUP(H4, 効果範囲_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K4" s="26">
         <f>IF(J4="","",VLOOKUP(J4, 効果割合_ID, 2, FALSE))</f>
@@ -4308,43 +4316,43 @@
         <v>0</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="44" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B5" s="26">
         <f>B4+1</f>
         <v>40002</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E5" s="26">
         <f>IF(D5="","",VLOOKUP(D5, 効果_ID, 2, FALSE))</f>
         <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G5" s="26">
         <f>IF(F5="","",VLOOKUP(F5, 対象_ID, 2, FALSE))</f>
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I5" s="26">
         <f>IF(H5="","",VLOOKUP(H5, 効果範囲_ID, 2, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K5" s="26">
         <f>IF(J5="","",VLOOKUP(J5, 効果割合_ID, 2, FALSE))</f>
@@ -4363,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5229,7 +5237,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J31" xr:uid="{38D39179-45DD-42B1-BBED-D6FAAF62DC9E}">
       <formula1>効果割合種類</formula1>
@@ -5286,62 +5294,62 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="67" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="25"/>
       <c r="F1" s="70" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="43" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B3" s="44">
         <v>50000</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E3" s="26">
         <f>IF(D3="","",VLOOKUP(D3, 装備種類_ID, 2, FALSE))</f>
@@ -5357,26 +5365,26 @@
         <v>0</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="44" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B4" s="44">
         <f>B3+1</f>
         <v>50001</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E4" s="26">
         <f>IF(D4="","",VLOOKUP(D4, 装備種類_ID, 2, FALSE))</f>
@@ -5392,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K4" s="30"/>
     </row>
@@ -5757,7 +5765,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4" xr:uid="{1153C706-4C87-4982-A782-C134F35A1F23}">
       <formula1>装備種類</formula1>
@@ -5780,7 +5788,7 @@
   <dimension ref="B14:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5792,83 +5800,83 @@
   <sheetData>
     <row r="14" spans="2:12">
       <c r="B14" s="71" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="1"/>
       <c r="E14" s="72" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="1"/>
       <c r="H14" s="72" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I14" s="72"/>
       <c r="K14" s="73" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="41" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L15" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="4" t="s">
-        <v>41</v>
+      <c r="B16" s="74" t="s">
+        <v>180</v>
       </c>
       <c r="C16" s="4">
         <v>10000</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6">
         <v>20000</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="42" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I16" s="42">
         <v>0</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L16" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="4" t="s">
-        <v>39</v>
+      <c r="B17" s="74" t="s">
+        <v>178</v>
       </c>
       <c r="C17" s="4">
         <f>IF(B17="","",C16+1)</f>
@@ -5876,7 +5884,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6">
         <f>IF(E17="", "", F16+1)</f>
@@ -5884,7 +5892,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="42" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I17" s="42">
         <f t="shared" ref="I17:I27" si="0">I16+1</f>
@@ -5901,7 +5909,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F18" s="6">
         <f>IF(E18="", "", F17+1)</f>
@@ -5909,7 +5917,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="42" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I18" s="42">
         <f t="shared" si="0"/>
@@ -5927,7 +5935,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="42" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I19" s="42">
         <f t="shared" si="0"/>
@@ -5942,7 +5950,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="42" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I20" s="42">
         <f t="shared" si="0"/>
@@ -5957,7 +5965,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="51" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I21" s="42">
         <f t="shared" si="0"/>
@@ -5972,7 +5980,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="42" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I22" s="42">
         <f t="shared" si="0"/>
@@ -5987,7 +5995,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I23" s="42">
         <f t="shared" si="0"/>
@@ -6002,7 +6010,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="42" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I24" s="42">
         <f t="shared" si="0"/>
@@ -6017,7 +6025,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I25" s="42">
         <f t="shared" si="0"/>
@@ -6032,7 +6040,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="42" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I26" s="42">
         <f t="shared" si="0"/>
@@ -6041,7 +6049,7 @@
     </row>
     <row r="27" spans="2:12">
       <c r="H27" s="42" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I27" s="42">
         <f t="shared" si="0"/>
@@ -6055,7 +6063,7 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K14:L14"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
